--- a/results/I3_N5_M2_T45_C100_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1848.332774348481</v>
+        <v>1094.391386707094</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6050000190734863</v>
+        <v>0.4950001239776611</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.80250981242274</v>
+        <v>27.97991409564075</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.38488900496456</v>
+        <v>12.734137167766</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.175153539594581</v>
+        <v>5.145609779219563</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1738.760000001428</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.98</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.23516695818518</v>
+        <v>36.96930412595108</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.61511099503545</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.17982867053999</v>
+        <v>32.43528232449539</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.26586283223401</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -971,29 +971,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000289</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>270.02000000004</v>
+        <v>177.8</v>
       </c>
     </row>
     <row r="5">
@@ -1074,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>115.3950000000405</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>64.27300000000832</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>182.6480000000394</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="8">
@@ -1107,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>270.020000000076</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.8560000000673</v>
+        <v>177.8</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>170.020000000076</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3">
@@ -1176,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.856000000066871</v>
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3">
@@ -1245,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1256,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1281,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,7 +1294,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1319,7 +1305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1330,23 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
